--- a/tut04/output_by_subject/PH403.csv.xlsx
+++ b/tut04/output_by_subject/PH403.csv.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,6 +634,204 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1801CB05</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PH403</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Open Elective - III</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1801CB19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PH403</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Open Elective - III</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1801CE08</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PH403</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Open Elective - III</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1801ME03</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PH403</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Open Elective - III</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1801CS44</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PH403</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1801ME35</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PH403</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Open Elective - III</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1801ME01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PH403</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Open Elective - III</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1801ME16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PH403</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Open Elective - III</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1801CS59</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PH403</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
